--- a/samples/1_playground.xlsx
+++ b/samples/1_playground.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="14082018rookvrijelocatiesspelen" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -70,9 +70,6 @@
     <t>Kolom2</t>
   </si>
   <si>
-    <t> 't Speulparadies</t>
-  </si>
-  <si>
     <t>Spelen en recreëren</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>https://www.speeltuinbeerta.nl/kinderspeeltuin-speulparadies-oldambt-groningen-home-nl</t>
+  </si>
+  <si>
+    <t>t Speulparadies</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -217,6 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -573,7 +574,7 @@
   <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -626,30 +627,30 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="5">
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="9"/>
